--- a/20 開発資料/02.画面、帳票設計/画面一覧.xlsx
+++ b/20 開発資料/02.画面、帳票設計/画面一覧.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="151">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -917,22 +917,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>講演会・コストセンター別集計CSV出力</t>
-    <rPh sb="0" eb="3">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/admin/MstShisetsu.aspx</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1302,6 +1286,47 @@
   </si>
   <si>
     <t>/SeisanKensaku.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精算処理用の講演会検索画面</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SapCsv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SapCsv.aspx</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1570,34 +1595,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="1" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="1" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="1" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="1" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="1" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="1" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="1" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="1" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -1610,122 +1746,11 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="1" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="1" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="1" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="1" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="1" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="1" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="1" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="1" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2041,204 +2066,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="20" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="40" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="51"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="46" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="21" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="46" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="40" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="20" t="s">
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="27">
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="55">
         <v>41534</v>
       </c>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="20" t="s">
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="19" t="s">
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="20" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="20" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="20" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="27">
-        <v>41599</v>
-      </c>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="20" t="s">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="55">
+        <v>41604</v>
+      </c>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="19" t="s">
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -2310,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="12"/>
@@ -2319,7 +2344,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="12"/>
@@ -2353,7 +2378,7 @@
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
       <c r="AM6" s="15"/>
-      <c r="AN6" s="30" t="s">
+      <c r="AN6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="AO6" s="12"/>
@@ -2375,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="12"/>
@@ -2384,7 +2409,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="12"/>
@@ -2418,7 +2443,7 @@
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
       <c r="AM7" s="15"/>
-      <c r="AN7" s="30" t="s">
+      <c r="AN7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="AO7" s="12"/>
@@ -2650,25 +2675,25 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="60" t="s">
+      <c r="W11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="61"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="62"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="19"/>
       <c r="AN11" s="11" t="s">
         <v>74</v>
       </c>
@@ -2686,65 +2711,65 @@
       <c r="AZ11" s="13"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A12" s="52">
+      <c r="A12" s="23">
         <f>ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="57" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="54" t="s">
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="55"/>
-      <c r="AX12" s="55"/>
-      <c r="AY12" s="55"/>
-      <c r="AZ12" s="56"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="32"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
@@ -3028,7 +3053,7 @@
       <c r="U17" s="14"/>
       <c r="V17" s="15"/>
       <c r="W17" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
@@ -3078,7 +3103,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
       <c r="J18" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -3093,7 +3118,7 @@
       <c r="U18" s="14"/>
       <c r="V18" s="15"/>
       <c r="W18" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
@@ -3157,25 +3182,25 @@
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="15"/>
-      <c r="W19" s="60" t="s">
+      <c r="W19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="62"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="19"/>
       <c r="AN19" s="11" t="s">
         <v>48</v>
       </c>
@@ -3223,7 +3248,7 @@
       <c r="U20" s="14"/>
       <c r="V20" s="15"/>
       <c r="W20" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
@@ -3287,25 +3312,25 @@
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="62"/>
+      <c r="W21" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="19"/>
       <c r="AN21" s="11" t="s">
         <v>84</v>
       </c>
@@ -3338,7 +3363,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
       <c r="J22" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
@@ -3352,25 +3377,25 @@
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="61"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="62"/>
+      <c r="W22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="19"/>
       <c r="AN22" s="11" t="s">
         <v>61</v>
       </c>
@@ -3388,84 +3413,84 @@
       <c r="AZ22" s="13"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A23" s="52">
+      <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="57" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="57" t="s">
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="50"/>
-      <c r="AJ23" s="50"/>
-      <c r="AK23" s="50"/>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="51"/>
-      <c r="AN23" s="54" t="s">
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AO23" s="55"/>
-      <c r="AP23" s="55"/>
-      <c r="AQ23" s="55"/>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="55"/>
-      <c r="AU23" s="55"/>
-      <c r="AV23" s="55"/>
-      <c r="AW23" s="55"/>
-      <c r="AX23" s="55"/>
-      <c r="AY23" s="55"/>
-      <c r="AZ23" s="56"/>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="31"/>
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31"/>
+      <c r="AZ23" s="32"/>
     </row>
     <row r="24" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="63"/>
+      <c r="A24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -3480,39 +3505,39 @@
       <c r="U24" s="14"/>
       <c r="V24" s="15"/>
       <c r="W24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="62"/>
+      <c r="AM24" s="63"/>
+      <c r="AN24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="18"/>
-      <c r="AN24" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
-      <c r="AW24" s="17"/>
-      <c r="AX24" s="17"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="18"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="62"/>
+      <c r="AT24" s="62"/>
+      <c r="AU24" s="62"/>
+      <c r="AV24" s="62"/>
+      <c r="AW24" s="62"/>
+      <c r="AX24" s="62"/>
+      <c r="AY24" s="62"/>
+      <c r="AZ24" s="63"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
@@ -3620,7 +3645,7 @@
       <c r="AL26" s="12"/>
       <c r="AM26" s="13"/>
       <c r="AN26" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
@@ -3685,7 +3710,7 @@
       <c r="AL27" s="12"/>
       <c r="AM27" s="13"/>
       <c r="AN27" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
@@ -3707,7 +3732,7 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -3716,7 +3741,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
       <c r="J28" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -3731,7 +3756,7 @@
       <c r="U28" s="14"/>
       <c r="V28" s="15"/>
       <c r="W28" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
@@ -3750,7 +3775,7 @@
       <c r="AL28" s="12"/>
       <c r="AM28" s="13"/>
       <c r="AN28" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AO28" s="12"/>
       <c r="AP28" s="12"/>
@@ -3771,7 +3796,7 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3780,7 +3805,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="13"/>
       <c r="J29" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
@@ -3795,7 +3820,7 @@
       <c r="U29" s="14"/>
       <c r="V29" s="15"/>
       <c r="W29" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -3814,7 +3839,7 @@
       <c r="AL29" s="12"/>
       <c r="AM29" s="13"/>
       <c r="AN29" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO29" s="12"/>
       <c r="AP29" s="12"/>
@@ -3831,7 +3856,7 @@
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3891,7 +3916,7 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -3900,7 +3925,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
       <c r="J31" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
@@ -3915,7 +3940,7 @@
       <c r="U31" s="14"/>
       <c r="V31" s="15"/>
       <c r="W31" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
@@ -3934,7 +3959,7 @@
       <c r="AL31" s="12"/>
       <c r="AM31" s="13"/>
       <c r="AN31" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AO31" s="12"/>
       <c r="AP31" s="12"/>
@@ -3964,7 +3989,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
       <c r="J32" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
@@ -3979,7 +4004,7 @@
       <c r="U32" s="14"/>
       <c r="V32" s="15"/>
       <c r="W32" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
@@ -3998,7 +4023,7 @@
       <c r="AL32" s="12"/>
       <c r="AM32" s="13"/>
       <c r="AN32" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO32" s="12"/>
       <c r="AP32" s="12"/>
@@ -4015,7 +4040,7 @@
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4075,7 +4100,7 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -4099,7 +4124,7 @@
       <c r="U34" s="14"/>
       <c r="V34" s="15"/>
       <c r="W34" s="11" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
@@ -4118,7 +4143,7 @@
       <c r="AL34" s="12"/>
       <c r="AM34" s="13"/>
       <c r="AN34" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AO34" s="12"/>
       <c r="AP34" s="12"/>
@@ -4139,7 +4164,7 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -4148,7 +4173,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
       <c r="J35" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
@@ -4163,7 +4188,7 @@
       <c r="U35" s="14"/>
       <c r="V35" s="15"/>
       <c r="W35" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
@@ -4182,7 +4207,7 @@
       <c r="AL35" s="12"/>
       <c r="AM35" s="13"/>
       <c r="AN35" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AO35" s="12"/>
       <c r="AP35" s="12"/>
@@ -4203,7 +4228,7 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -4246,7 +4271,7 @@
       <c r="AL36" s="12"/>
       <c r="AM36" s="13"/>
       <c r="AN36" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO36" s="12"/>
       <c r="AP36" s="12"/>
@@ -4267,7 +4292,7 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -4276,7 +4301,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
       <c r="J37" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
@@ -4291,7 +4316,7 @@
       <c r="U37" s="14"/>
       <c r="V37" s="15"/>
       <c r="W37" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
@@ -4310,7 +4335,7 @@
       <c r="AL37" s="12"/>
       <c r="AM37" s="13"/>
       <c r="AN37" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AO37" s="12"/>
       <c r="AP37" s="12"/>
@@ -4330,7 +4355,9 @@
         <v>25</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="30"/>
+      <c r="C38" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -4352,7 +4379,7 @@
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
       <c r="V38" s="15"/>
-      <c r="W38" s="30" t="s">
+      <c r="W38" s="16" t="s">
         <v>97</v>
       </c>
       <c r="X38" s="12"/>
@@ -4371,7 +4398,9 @@
       <c r="AK38" s="12"/>
       <c r="AL38" s="12"/>
       <c r="AM38" s="13"/>
-      <c r="AN38" s="30"/>
+      <c r="AN38" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="AO38" s="12"/>
       <c r="AP38" s="12"/>
       <c r="AQ38" s="12"/>
@@ -4511,7 +4540,7 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -4535,7 +4564,7 @@
       <c r="U41" s="14"/>
       <c r="V41" s="15"/>
       <c r="W41" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
@@ -4554,7 +4583,7 @@
       <c r="AL41" s="12"/>
       <c r="AM41" s="13"/>
       <c r="AN41" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AO41" s="12"/>
       <c r="AP41" s="12"/>
@@ -4813,7 +4842,7 @@
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4868,12 +4897,12 @@
       <c r="AZ46" s="8"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
-        <v>128</v>
+      <c r="A47" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -4882,7 +4911,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="13"/>
       <c r="J47" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
@@ -4897,7 +4926,7 @@
       <c r="U47" s="14"/>
       <c r="V47" s="15"/>
       <c r="W47" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
@@ -4916,7 +4945,7 @@
       <c r="AL47" s="12"/>
       <c r="AM47" s="13"/>
       <c r="AN47" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AO47" s="12"/>
       <c r="AP47" s="12"/>
@@ -4933,20 +4962,159 @@
     </row>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="A39:AZ39"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="J27:V27"/>
-    <mergeCell ref="W27:AM27"/>
-    <mergeCell ref="AN27:AZ27"/>
-    <mergeCell ref="AN40:AZ40"/>
-    <mergeCell ref="W38:AM38"/>
-    <mergeCell ref="AN38:AZ38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="J34:V34"/>
-    <mergeCell ref="W34:AM34"/>
-    <mergeCell ref="AN34:AZ34"/>
+    <mergeCell ref="A46:AZ46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="J47:V47"/>
+    <mergeCell ref="W47:AM47"/>
+    <mergeCell ref="AN47:AZ47"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="J38:V38"/>
+    <mergeCell ref="W41:AM41"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="J40:V40"/>
+    <mergeCell ref="W40:AM40"/>
+    <mergeCell ref="J41:V41"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:V29"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A30:AZ30"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="A8:AZ8"/>
+    <mergeCell ref="J7:V7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="AN6:AZ6"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="W6:AM6"/>
+    <mergeCell ref="W7:AM7"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="J6:V6"/>
+    <mergeCell ref="AN7:AZ7"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A13:AZ13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="AN12:AZ12"/>
+    <mergeCell ref="AN9:AZ9"/>
+    <mergeCell ref="AN10:AZ10"/>
+    <mergeCell ref="AN11:AZ11"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J12:V12"/>
+    <mergeCell ref="AN14:AZ14"/>
+    <mergeCell ref="W9:AM9"/>
+    <mergeCell ref="W10:AM10"/>
+    <mergeCell ref="W11:AM11"/>
+    <mergeCell ref="W12:AM12"/>
+    <mergeCell ref="W14:AM14"/>
+    <mergeCell ref="W26:AM26"/>
+    <mergeCell ref="W28:AM28"/>
+    <mergeCell ref="W21:AM21"/>
+    <mergeCell ref="W22:AM22"/>
+    <mergeCell ref="W17:AM17"/>
+    <mergeCell ref="AN23:AZ23"/>
+    <mergeCell ref="AN28:AZ28"/>
+    <mergeCell ref="AN17:AZ17"/>
+    <mergeCell ref="W24:AM24"/>
+    <mergeCell ref="AN24:AZ24"/>
+    <mergeCell ref="AN26:AZ26"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="J26:V26"/>
+    <mergeCell ref="J28:V28"/>
+    <mergeCell ref="J14:V14"/>
+    <mergeCell ref="J17:V17"/>
+    <mergeCell ref="A25:AZ25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="J20:V20"/>
+    <mergeCell ref="W20:AM20"/>
+    <mergeCell ref="AN20:AZ20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J23:V23"/>
+    <mergeCell ref="W23:AM23"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="W18:AM18"/>
+    <mergeCell ref="AN18:AZ18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="J21:V21"/>
+    <mergeCell ref="AN21:AZ21"/>
+    <mergeCell ref="W19:AM19"/>
+    <mergeCell ref="AN19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="J44:V44"/>
+    <mergeCell ref="W44:AM44"/>
+    <mergeCell ref="AN44:AZ44"/>
+    <mergeCell ref="J35:V35"/>
+    <mergeCell ref="W35:AM35"/>
+    <mergeCell ref="AN35:AZ35"/>
+    <mergeCell ref="J22:V22"/>
+    <mergeCell ref="AN22:AZ22"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="W32:AM32"/>
+    <mergeCell ref="W31:AM31"/>
+    <mergeCell ref="A42:AZ42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="J43:V43"/>
+    <mergeCell ref="W43:AM43"/>
+    <mergeCell ref="AN43:AZ43"/>
+    <mergeCell ref="AN31:AZ31"/>
+    <mergeCell ref="AN32:AZ32"/>
+    <mergeCell ref="AN41:AZ41"/>
+    <mergeCell ref="J31:V31"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="J45:V45"/>
@@ -4971,168 +5139,29 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="J19:V19"/>
+    <mergeCell ref="A39:AZ39"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="J27:V27"/>
+    <mergeCell ref="W27:AM27"/>
+    <mergeCell ref="AN27:AZ27"/>
+    <mergeCell ref="AN40:AZ40"/>
+    <mergeCell ref="W38:AM38"/>
+    <mergeCell ref="AN38:AZ38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="J34:V34"/>
+    <mergeCell ref="W34:AM34"/>
+    <mergeCell ref="AN34:AZ34"/>
     <mergeCell ref="C37:I37"/>
     <mergeCell ref="J37:V37"/>
     <mergeCell ref="W37:AM37"/>
     <mergeCell ref="AN37:AZ37"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:I35"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="J44:V44"/>
-    <mergeCell ref="W44:AM44"/>
-    <mergeCell ref="AN44:AZ44"/>
-    <mergeCell ref="J35:V35"/>
-    <mergeCell ref="W35:AM35"/>
-    <mergeCell ref="AN35:AZ35"/>
-    <mergeCell ref="J22:V22"/>
-    <mergeCell ref="AN22:AZ22"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="W18:AM18"/>
-    <mergeCell ref="AN18:AZ18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="J21:V21"/>
-    <mergeCell ref="AN21:AZ21"/>
-    <mergeCell ref="W19:AM19"/>
-    <mergeCell ref="AN19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="J26:V26"/>
-    <mergeCell ref="J28:V28"/>
-    <mergeCell ref="J14:V14"/>
-    <mergeCell ref="J17:V17"/>
-    <mergeCell ref="A25:AZ25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="J20:V20"/>
-    <mergeCell ref="W20:AM20"/>
-    <mergeCell ref="AN20:AZ20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J23:V23"/>
-    <mergeCell ref="W23:AM23"/>
-    <mergeCell ref="AN14:AZ14"/>
-    <mergeCell ref="W9:AM9"/>
-    <mergeCell ref="W10:AM10"/>
-    <mergeCell ref="W11:AM11"/>
-    <mergeCell ref="W12:AM12"/>
-    <mergeCell ref="W14:AM14"/>
-    <mergeCell ref="W26:AM26"/>
-    <mergeCell ref="W28:AM28"/>
-    <mergeCell ref="W21:AM21"/>
-    <mergeCell ref="W22:AM22"/>
-    <mergeCell ref="W17:AM17"/>
-    <mergeCell ref="AN23:AZ23"/>
-    <mergeCell ref="AN28:AZ28"/>
-    <mergeCell ref="AN17:AZ17"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A13:AZ13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="AN12:AZ12"/>
-    <mergeCell ref="AN9:AZ9"/>
-    <mergeCell ref="AN10:AZ10"/>
-    <mergeCell ref="AN11:AZ11"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="J11:V11"/>
-    <mergeCell ref="J12:V12"/>
-    <mergeCell ref="A8:AZ8"/>
-    <mergeCell ref="J7:V7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="AN6:AZ6"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="W6:AM6"/>
-    <mergeCell ref="W7:AM7"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="J6:V6"/>
-    <mergeCell ref="AN7:AZ7"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="J24:V24"/>
-    <mergeCell ref="W24:AM24"/>
-    <mergeCell ref="AN24:AZ24"/>
-    <mergeCell ref="W32:AM32"/>
-    <mergeCell ref="AN26:AZ26"/>
-    <mergeCell ref="W31:AM31"/>
-    <mergeCell ref="A42:AZ42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="J43:V43"/>
-    <mergeCell ref="W43:AM43"/>
-    <mergeCell ref="AN43:AZ43"/>
-    <mergeCell ref="AN31:AZ31"/>
-    <mergeCell ref="AN32:AZ32"/>
-    <mergeCell ref="AN41:AZ41"/>
-    <mergeCell ref="J31:V31"/>
     <mergeCell ref="J32:V32"/>
-    <mergeCell ref="J41:V41"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="J29:V29"/>
     <mergeCell ref="W29:AM29"/>
     <mergeCell ref="AN29:AZ29"/>
-    <mergeCell ref="A46:AZ46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="J47:V47"/>
-    <mergeCell ref="W47:AM47"/>
-    <mergeCell ref="AN47:AZ47"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="J38:V38"/>
-    <mergeCell ref="W41:AM41"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="J40:V40"/>
-    <mergeCell ref="W40:AM40"/>
-    <mergeCell ref="A30:AZ30"/>
-    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
